--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
       <c r="J36" t="n">
-        <v>2.96</v>
+        <v>2.47</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>26/08/2023 05:12</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.31</v>
+        <v>3.14</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 15:04</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>26/08/2023 05:12</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-podhale-nowy-targ/rVthZBJo/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.47</v>
+        <v>3.03</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.47</v>
+        <v>3.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>27/08/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>26/08/2023 05:12</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>27/08/2023 16:36</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>26/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:04</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>26/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T37" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>26/08/2023 05:12</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-podhale-nowy-targ/rVthZBJo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:36</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.55</v>
+        <v>6.18</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>5.82</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.18</v>
+        <v>7.89</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.04</v>
+        <v>16.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.17</v>
+        <v>1.9</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>6.18</v>
+        <v>3.55</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>5.82</v>
+        <v>3.94</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.89</v>
+        <v>3.18</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>16.35</v>
+        <v>3.04</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.97</v>
+        <v>3.21</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.04</v>
+        <v>3.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.68</v>
+        <v>2.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.99</v>
+        <v>1.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.91</v>
+        <v>1.98</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.78</v>
+        <v>2.99</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.21</v>
+        <v>1.97</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.88</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.57</v>
+        <v>1.12</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.68</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.33</v>
+        <v>7.56</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.42</v>
+        <v>7.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.32</v>
+        <v>11.01</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.28</v>
+        <v>5.59</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.64</v>
+        <v>1.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.63</v>
+        <v>1.74</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.28</v>
+        <v>3.93</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.46</v>
+        <v>3.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.16</v>
+        <v>4.28</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.3</v>
+        <v>3.66</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.12</v>
+        <v>2.64</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.27</v>
+        <v>2.63</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>7.56</v>
+        <v>3.28</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.25</v>
+        <v>3.46</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>11.01</v>
+        <v>2.16</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>5.59</v>
+        <v>2.3</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.57</v>
+        <v>2.57</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.93</v>
+        <v>3.33</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.28</v>
+        <v>2.32</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.66</v>
+        <v>2.28</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,190 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-unia-tarnow/GxbLeQWF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45191.66666666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>22/09/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:44</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>22/09/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:44</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>22/09/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:44</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-ks-karpaty-krosno/jeC383GL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45191.81180555555</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-ks-wieczysta-krakow/jJfjaaw8/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.22</v>
+        <v>3.45</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.41</v>
+        <v>2.51</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.45</v>
+        <v>3.22</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:31</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,466 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-ks-wieczysta-krakow/jJfjaaw8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Czarni Polaniec</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:44</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:44</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-czarni-polaniec/Mw3Z2svq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Chelmianka Chelm</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:08</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:08</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:08</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-star-starachowice/KUG77NVR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:13</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:13</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:13</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:44</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wisloka-debica/hvmP7is8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45193.79166666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:44</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:44</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-siarka-tarnobrzeg/42hv21gk/</t>
         </is>
       </c>
     </row>
